--- a/DATA SAMPLE/data.xlsx
+++ b/DATA SAMPLE/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hp\Documents\bibliothèque de travail\2 Elève ingénieur\ISE\Cours\ISE3\Tronc commun\UE35 SCIENCES SOCIALES\Analyse démographique M. Faye\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hp\Documents\bibliothèque de travail\2 Elève ingénieur\ISE\Cours\ISE3\Tronc commun\UE35 SCIENCES SOCIALES\Analyse démographique M. Faye\DATA-QUALITY-INDICATORS-APK\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4E8FB-D9E4-4F16-9805-D8CCE7D77A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22353673-5A18-40D9-BD07-1A8CE2B07507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{010F455E-80D1-4B5C-9B08-246EF5666A1F}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="12015" windowHeight="7785" xr2:uid="{010F455E-80D1-4B5C-9B08-246EF5666A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>AGE</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -37,6 +34,9 @@
   </si>
   <si>
     <t>Femme</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -121,10 +121,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -443,24 +443,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF30B26-9D11-44EF-A7F0-9C53496C3FF8}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1976,10 +1974,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
